--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einführung" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top_Down" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Eigene" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intern" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Extern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -206,7 +207,43 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -338,24 +375,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E94" headerRowCount="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E94" headerRowCount="1" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:E94"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ESRS" dataDxfId="7"/>
-    <tableColumn id="2" name="Thema" dataDxfId="6"/>
-    <tableColumn id="3" name="Unterthema" dataDxfId="5"/>
-    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="4"/>
-    <tableColumn id="5" name="Bewertung" dataDxfId="3"/>
+    <tableColumn id="1" name="ESRS" dataDxfId="10"/>
+    <tableColumn id="2" name="Thema" dataDxfId="9"/>
+    <tableColumn id="3" name="Unterthema" dataDxfId="8"/>
+    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="7"/>
+    <tableColumn id="5" name="Bewertung" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:E363"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Quelle"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle4" displayName="Tabelle4" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:D363"/>
+  <tableColumns count="4">
+    <tableColumn id="2" name="Thema"/>
+    <tableColumn id="3" name="Unterthema"/>
+    <tableColumn id="4" name="Unter-Unterthema"/>
+    <tableColumn id="5" name="Bewertung"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:D363"/>
+  <tableColumns count="4">
     <tableColumn id="2" name="Thema"/>
     <tableColumn id="3" name="Unterthema"/>
     <tableColumn id="4" name="Unter-Unterthema"/>
@@ -689,13 +738,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col width="28.54296875" bestFit="1" customWidth="1" style="17" min="1" max="1"/>
     <col width="119.453125" bestFit="1" customWidth="1" style="17" min="2" max="2"/>
+    <col width="34.54296875" customWidth="1" style="17" min="3" max="3"/>
+    <col width="36.453125" customWidth="1" style="17" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -799,7 +850,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2646,49 +2697,43 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A5:D5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.81640625" customWidth="1" style="17" min="1" max="1"/>
-    <col width="25.81640625" customWidth="1" style="17" min="2" max="2"/>
-    <col width="41.1796875" customWidth="1" style="17" min="3" max="3"/>
-    <col width="18.54296875" customWidth="1" style="17" min="4" max="4"/>
-    <col width="18.7265625" customWidth="1" style="17" min="5" max="5"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
+    <col width="25.81640625" customWidth="1" style="17" min="1" max="1"/>
+    <col width="41.1796875" customWidth="1" style="17" min="2" max="2"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="3" max="3"/>
+    <col width="18.7265625" customWidth="1" style="17" min="4" max="4"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="17" thickBot="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>Quelle</t>
+          <t>Thema</t>
         </is>
       </c>
       <c r="B1" s="15" t="inlineStr">
         <is>
-          <t>Thema</t>
+          <t>Unterthema</t>
         </is>
       </c>
       <c r="C1" s="15" t="inlineStr">
         <is>
-          <t>Unterthema</t>
+          <t>Unter-Unterthema</t>
         </is>
       </c>
       <c r="D1" s="15" t="inlineStr">
         <is>
-          <t>Unter-Unterthema</t>
-        </is>
-      </c>
-      <c r="E1" s="15" t="inlineStr">
-        <is>
           <t>Bewertung</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wesentlich</t>
         </is>
@@ -2697,46 +2742,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eigene</t>
+          <t>Klimawandel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Eher Wesentlich</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Klimawandel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>rr</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Eher Wesentlich</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="H3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>frr</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="H4" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D201:D754 E2:E200">
+  <conditionalFormatting sqref="C201:C754 D2:D200">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2748,12 +2803,109 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation sqref="G1:G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$A$14:$A$17</formula1>
+    </dataValidation>
+    <dataValidation sqref="C201:C400 D2:D200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$G$1:$G$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="25.81640625" customWidth="1" style="17" min="1" max="1"/>
+    <col width="41.1796875" customWidth="1" style="17" min="2" max="2"/>
+    <col width="18.54296875" customWidth="1" style="17" min="3" max="3"/>
+    <col width="18.7265625" customWidth="1" style="17" min="4" max="4"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" s="17" thickBot="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>Thema</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Unterthema</t>
+        </is>
+      </c>
+      <c r="C1" s="15" t="inlineStr">
+        <is>
+          <t>Unter-Unterthema</t>
+        </is>
+      </c>
+      <c r="D1" s="15" t="inlineStr">
+        <is>
+          <t>Bewertung</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wesentlich</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Eher Wesentlich</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Eher nicht Wesentlich</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Nicht Wesentlich</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C201:C754 D2:D200">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="H1:H4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$B$14:$B$17</formula1>
+    <dataValidation sqref="C201:C400 D2:D200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$G$1:$G$4</formula1>
     </dataValidation>
-    <dataValidation sqref="D201:D400 E2:E200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$H$1:$H$4</formula1>
+    <dataValidation sqref="G1:G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$A$14:$A$17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -2784,6 +2784,21 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einführung" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top_Down" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top-Down" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intern" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Extern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -210,16 +210,16 @@
   <dxfs count="13">
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color rgb="FF000000"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color rgb="FF000000"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D363"/>
   <tableColumns count="4">
     <tableColumn id="2" name="Thema"/>
@@ -849,7 +849,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2697,9 +2697,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2804,6 +2804,19 @@
           <t>Nicht Wesentlich</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -2697,7 +2697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
@@ -2750,11 +2750,7 @@
           <t>Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>rr</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
@@ -2774,7 +2770,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>frr</t>
+          <t>Eigene</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -2784,39 +2780,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -2750,7 +2750,11 @@
           <t>Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hundis</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
@@ -2758,21 +2762,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Eigene</t>
-        </is>
-      </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -2752,7 +2752,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hundis</t>
+          <t>Hunde</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einführung" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top-Down" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top_Down" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intern" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Extern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -389,9 +389,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle4" displayName="Tabelle4" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:D363"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:E363"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Quelle"/>
     <tableColumn id="2" name="Thema"/>
     <tableColumn id="3" name="Unterthema"/>
     <tableColumn id="4" name="Unter-Unterthema"/>
@@ -402,9 +403,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:D363"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:E363"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Quelle"/>
     <tableColumn id="2" name="Thema"/>
     <tableColumn id="3" name="Unterthema"/>
     <tableColumn id="4" name="Unter-Unterthema"/>
@@ -738,15 +740,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="28.54296875" bestFit="1" customWidth="1" style="17" min="1" max="1"/>
+    <col width="33.1796875" bestFit="1" customWidth="1" style="17" min="1" max="1"/>
     <col width="119.453125" bestFit="1" customWidth="1" style="17" min="2" max="2"/>
-    <col width="34.54296875" customWidth="1" style="17" min="3" max="3"/>
-    <col width="36.453125" customWidth="1" style="17" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -819,7 +819,7 @@
     <row r="8" ht="15" customHeight="1" s="17" thickBot="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Unternehmensname:</t>
+          <t>Stakeholder- oder Unternehmensname:</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -849,8 +849,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2697,43 +2697,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="25.81640625" customWidth="1" style="17" min="1" max="1"/>
-    <col width="41.1796875" customWidth="1" style="17" min="2" max="2"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="3" max="3"/>
-    <col width="18.7265625" customWidth="1" style="17" min="4" max="4"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
+    <col width="16.81640625" customWidth="1" style="17" min="1" max="1"/>
+    <col width="25.81640625" customWidth="1" style="17" min="2" max="2"/>
+    <col width="41.1796875" customWidth="1" style="17" min="3" max="3"/>
+    <col width="18.54296875" customWidth="1" style="17" min="4" max="4"/>
+    <col width="18.7265625" customWidth="1" style="17" min="5" max="5"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="17" thickBot="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
+          <t>Quelle</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>Bewertung</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Wesentlich</t>
         </is>
@@ -2752,31 +2758,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hunde</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="G3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="G4" s="4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C201:C754 D2:D200">
+  <conditionalFormatting sqref="D201:D754 E2:E200">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2788,12 +2805,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation sqref="G1:G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$A$14:$A$17</formula1>
+  <dataValidations count="2">
+    <dataValidation sqref="H1:H4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$B$14:$B$17</formula1>
     </dataValidation>
-    <dataValidation sqref="C201:C400 D2:D200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$G$1:$G$4</formula1>
+    <dataValidation sqref="D201:D400 E2:E200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$H$1:$H$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -2809,71 +2826,77 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="25.81640625" customWidth="1" style="17" min="1" max="1"/>
-    <col width="41.1796875" customWidth="1" style="17" min="2" max="2"/>
-    <col width="18.54296875" customWidth="1" style="17" min="3" max="3"/>
-    <col width="18.7265625" customWidth="1" style="17" min="4" max="4"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
+    <col width="16.81640625" customWidth="1" style="17" min="1" max="1"/>
+    <col width="25.81640625" customWidth="1" style="17" min="2" max="2"/>
+    <col width="41.1796875" customWidth="1" style="17" min="3" max="3"/>
+    <col width="18.54296875" customWidth="1" style="17" min="4" max="4"/>
+    <col width="18.7265625" customWidth="1" style="17" min="5" max="5"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="17" thickBot="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
+          <t>Quelle</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>Bewertung</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="G3" s="3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="G4" s="4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C201:C754 D2:D200">
+  <conditionalFormatting sqref="D201:D754 E2:E200">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2886,11 +2909,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="C201:C400 D2:D200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$G$1:$G$4</formula1>
+    <dataValidation sqref="D201:D400 E2:E200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$H$1:$H$4</formula1>
     </dataValidation>
-    <dataValidation sqref="G1:G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$A$14:$A$17</formula1>
+    <dataValidation sqref="H1:H4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$B$14:$B$17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einführung" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,10 +389,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:E363"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Quelle"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle4" displayName="Tabelle4" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:D363"/>
+  <tableColumns count="4">
     <tableColumn id="2" name="Thema"/>
     <tableColumn id="3" name="Unterthema"/>
     <tableColumn id="4" name="Unter-Unterthema"/>
@@ -403,10 +402,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:E363"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Quelle"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:D363"/>
+  <tableColumns count="4">
     <tableColumn id="2" name="Thema"/>
     <tableColumn id="3" name="Unterthema"/>
     <tableColumn id="4" name="Unter-Unterthema"/>
@@ -740,7 +738,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -822,11 +820,7 @@
           <t>Stakeholder- oder Unternehmensname:</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
+      <c r="B8" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -849,8 +843,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2697,49 +2691,43 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.81640625" customWidth="1" style="17" min="1" max="1"/>
-    <col width="25.81640625" customWidth="1" style="17" min="2" max="2"/>
-    <col width="41.1796875" customWidth="1" style="17" min="3" max="3"/>
-    <col width="18.54296875" customWidth="1" style="17" min="4" max="4"/>
-    <col width="18.7265625" customWidth="1" style="17" min="5" max="5"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
+    <col width="35.6328125" customWidth="1" style="17" min="1" max="1"/>
+    <col width="56.6328125" customWidth="1" style="17" min="2" max="2"/>
+    <col width="66.6328125" customWidth="1" style="17" min="3" max="3"/>
+    <col width="18.7265625" customWidth="1" style="17" min="4" max="4"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="17" thickBot="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>Quelle</t>
+          <t>Thema</t>
         </is>
       </c>
       <c r="B1" s="15" t="inlineStr">
         <is>
-          <t>Thema</t>
+          <t>Unterthema</t>
         </is>
       </c>
       <c r="C1" s="15" t="inlineStr">
         <is>
-          <t>Unterthema</t>
+          <t>Unter-Unterthema</t>
         </is>
       </c>
       <c r="D1" s="15" t="inlineStr">
         <is>
-          <t>Unter-Unterthema</t>
-        </is>
-      </c>
-      <c r="E1" s="15" t="inlineStr">
-        <is>
           <t>Bewertung</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wesentlich</t>
         </is>
@@ -2758,10 +2746,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+          <t>Eigener Unter-Unterpunkt</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
         </is>
@@ -2770,30 +2758,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Biologische Vielfalt und Ökosysteme</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr">
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Eigener Unter-Unterpunkt</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="H4" s="4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Eigener Unter-Unterpunkt</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Eigenes Thema</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eigenes Unterthema</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Eigener Unter-Unterpunkt</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D201:D754 E2:E200">
+  <conditionalFormatting sqref="C201:C754 D2:D200">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2806,11 +2830,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="H1:H4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$B$14:$B$17</formula1>
+    <dataValidation sqref="G1:G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$A$14:$A$17</formula1>
     </dataValidation>
-    <dataValidation sqref="D201:D400 E2:E200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$H$1:$H$4</formula1>
+    <dataValidation sqref="C201:C400 D2:D200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$G$1:$G$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -2826,77 +2850,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.81640625" customWidth="1" style="17" min="1" max="1"/>
-    <col width="25.81640625" customWidth="1" style="17" min="2" max="2"/>
-    <col width="41.1796875" customWidth="1" style="17" min="3" max="3"/>
-    <col width="18.54296875" customWidth="1" style="17" min="4" max="4"/>
-    <col width="18.7265625" customWidth="1" style="17" min="5" max="5"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
+    <col width="35.6328125" customWidth="1" style="17" min="1" max="1"/>
+    <col width="56.6328125" customWidth="1" style="17" min="2" max="2"/>
+    <col width="66.7265625" customWidth="1" style="17" min="3" max="3"/>
+    <col width="18.7265625" customWidth="1" style="17" min="4" max="4"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="17" thickBot="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>Quelle</t>
+          <t>Thema</t>
         </is>
       </c>
       <c r="B1" s="15" t="inlineStr">
         <is>
-          <t>Thema</t>
+          <t>Unterthema</t>
         </is>
       </c>
       <c r="C1" s="15" t="inlineStr">
         <is>
-          <t>Unterthema</t>
+          <t>Unter-Unterthema</t>
         </is>
       </c>
       <c r="D1" s="15" t="inlineStr">
         <is>
-          <t>Unter-Unterthema</t>
-        </is>
-      </c>
-      <c r="E1" s="15" t="inlineStr">
-        <is>
           <t>Bewertung</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="H3" s="3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="H4" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D201:D754 E2:E200">
+  <conditionalFormatting sqref="C201:C754 D2:D200">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2909,11 +2927,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="D201:D400 E2:E200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$H$1:$H$4</formula1>
+    <dataValidation sqref="C201:C400 D2:D200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$G$1:$G$4</formula1>
     </dataValidation>
-    <dataValidation sqref="H1:H4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$B$14:$B$17</formula1>
+    <dataValidation sqref="G1:G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$A$14:$A$17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einführung" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top_Down" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top-Down" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intern" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Extern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -843,7 +843,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -2691,7 +2691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -2744,11 +2744,7 @@
           <t>Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Eigener Unter-Unterpunkt</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
@@ -2756,21 +2752,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Biologische Vielfalt und Ökosysteme</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Eigener Unter-Unterpunkt</t>
-        </is>
-      </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>
@@ -2778,41 +2759,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Eigene Belegschaft</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arbeitsbedingungen</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Eigener Unter-Unterpunkt</t>
-        </is>
-      </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Eigenes Thema</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eigenes Unterthema</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Eigener Unter-Unterpunkt</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2801,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einführung" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -61,6 +61,12 @@
       <b val="1"/>
       <color theme="0"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,27 +138,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -164,11 +155,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -176,7 +191,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
@@ -198,7 +212,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -207,7 +229,182 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -279,6 +476,15 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -375,40 +581,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E94" headerRowCount="1" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:E94"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ESRS" dataDxfId="10"/>
-    <tableColumn id="2" name="Thema" dataDxfId="9"/>
-    <tableColumn id="3" name="Unterthema" dataDxfId="8"/>
-    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="7"/>
-    <tableColumn id="5" name="Bewertung" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F94" headerRowCount="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:F94"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ESRS" dataDxfId="36"/>
+    <tableColumn id="2" name="Thema" dataDxfId="35"/>
+    <tableColumn id="3" name="Unterthema" dataDxfId="34"/>
+    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="33"/>
+    <tableColumn id="5" name="Auswirkungsbezogene Bewertung" dataDxfId="32"/>
+    <tableColumn id="6" name="Finanzbezogene Bewertung" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle4" displayName="Tabelle4" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:D363"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="A1:E363"/>
+  <tableColumns count="5">
     <tableColumn id="2" name="Thema"/>
     <tableColumn id="3" name="Unterthema"/>
     <tableColumn id="4" name="Unter-Unterthema"/>
-    <tableColumn id="5" name="Bewertung"/>
+    <tableColumn id="5" name="Auswirkungsbezogene Bewertung"/>
+    <tableColumn id="1" name="Finanzbezogene Bewertung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:D363"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" headerRowCount="1" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:E363"/>
+  <tableColumns count="5">
     <tableColumn id="2" name="Thema"/>
     <tableColumn id="3" name="Unterthema"/>
     <tableColumn id="4" name="Unter-Unterthema"/>
-    <tableColumn id="5" name="Bewertung"/>
+    <tableColumn id="5" name="Auswirkungsbezogene Bewertung"/>
+    <tableColumn id="1" name="Finanzbezogene Bewertung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,20 +944,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="33.1796875" bestFit="1" customWidth="1" style="17" min="1" max="1"/>
-    <col width="119.453125" bestFit="1" customWidth="1" style="17" min="2" max="2"/>
+    <col width="33.1796875" bestFit="1" customWidth="1" style="20" min="1" max="1"/>
+    <col width="124.08984375" customWidth="1" style="20" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Anleitung zur Verwendung der Excel-Tabelle zur Wesentlichkeitsanalyse</t>
         </is>
@@ -772,63 +981,100 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>2. Bewertung der Umweltaspekte:</t>
+          <t>2. Unternehmensangaben eintragen:</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>Die einzelnen Umweltaspekte sind an den themenspezifischen Umweltpunkten der European Sustainability Reporting Standards (ESRS) orientiert.</t>
+          <t>Tragen Sie den Namen Ihres Unternehmens in die Zelle B12 ein.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n"/>
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>3. Bewertung der Umweltaspekte:</t>
+        </is>
+      </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>Beurteilen Sie diese nach ihrer Wesentlichkeit für Ihr Unternehmen.</t>
+          <t>1. Die Inhalte der Lasche "Top-Down sind an den themenspezifischen Umweltpunkten der European Sustainability Reporting Standards (ESRS) orientiert.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>3. Unternehmensangaben eintragen:</t>
-        </is>
-      </c>
+      <c r="A5" s="6" t="n"/>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>Tragen Sie den Namen Ihres Unternehmens in die Zelle B8 ein.</t>
+          <t>2. Die Inhalte der Lasche "Intern" sind vom Unternhemen, welches die Wesentlichkeitsanalyse durchführt, aufgenommen worden.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>3. Die Inhalte in der Lasche "Extern" können von Ihnen bestimmt werden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     Tragen Sie hier wesentliche Inhalte ein, die in den zwei vorherigen Laschen  nicht abgedeckt sind.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="20">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. Bewerten Sie alle Umweltpunkte in den Laschen "Top-Down" und "Intern", sowie gegebenenfalls in der Lasche "Extern", falls von Ihnen hinzugefügt. </t>
+        </is>
+      </c>
+      <c r="C8" s="15" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="20">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     Nutzen Sie dafür die Listenauswahl in der Spalte "Bewertung" in jeder dieser Laschen</t>
+        </is>
+      </c>
+      <c r="C9" s="15" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>4. Dateiübermittlung:</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>Senden Sie die vollständig ausgefüllte Excel-Tabelle an die vorgegebene Adresse oder den Kontakt zurück, um die Datenerhebung abzuschließen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="17" thickBot="1"/>
-    <row r="8" ht="15" customHeight="1" s="17" thickBot="1">
-      <c r="A8" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>Senden Sie die vollständig ausgefüllte Excel-Tabelle an den Kontakt zurück, um die Datenerhebung abzuschließen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="20" thickBot="1"/>
+    <row r="12" ht="15" customHeight="1" s="20" thickBot="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Stakeholder- oder Unternehmensname:</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
+      <c r="B12" s="17" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="A14:A17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>$A$14:$A$17</formula1>
+    <dataValidation sqref="A15:A18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$A$15:$A$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -843,43 +1089,49 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="35.453125" bestFit="1" customWidth="1" style="17" min="2" max="2"/>
-    <col width="66.36328125" bestFit="1" customWidth="1" style="17" min="3" max="3"/>
-    <col width="107.26953125" bestFit="1" customWidth="1" style="17" min="4" max="4"/>
-    <col width="21.36328125" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
-    <col width="18.453125" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
+    <col width="35.453125" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="66.36328125" bestFit="1" customWidth="1" style="20" min="3" max="3"/>
+    <col width="107.26953125" bestFit="1" customWidth="1" style="20" min="4" max="4"/>
+    <col width="41.7265625" bestFit="1" customWidth="1" style="20" min="5" max="5"/>
+    <col width="34.26953125" bestFit="1" customWidth="1" style="20" min="6" max="6"/>
+    <col width="18.453125" bestFit="1" customWidth="1" style="20" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>ESRS</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
-        <is>
-          <t>Bewertung</t>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Auswirkungsbezogene Bewertung</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Finanzbezogene Bewertung</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -889,23 +1141,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Klimawandel</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
@@ -913,19 +1166,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="A3" s="8" t="n"/>
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>Klimawandel</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Klimaschutz</t>
         </is>
       </c>
-      <c r="D3" s="9" t="n"/>
-      <c r="E3" s="9" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
       <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>
@@ -933,19 +1187,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>Klimawandel</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Energie</t>
         </is>
       </c>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="9" t="n"/>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
       <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
@@ -953,1665 +1208,1763 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>E2</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>Luftverschmutzung</t>
         </is>
       </c>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="11" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="10" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>Wasserverschmutzung</t>
         </is>
       </c>
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="11" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="10" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="A7" s="10" t="n"/>
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>Bodenverschmutzung</t>
         </is>
       </c>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="11" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="10" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="n"/>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>Verschmutzung von lebenden Organismen und Nahrungsressourcen</t>
         </is>
       </c>
-      <c r="D8" s="11" t="n"/>
-      <c r="E8" s="11" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="10" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>Besorgniserregende Stoffe</t>
         </is>
       </c>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="11" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="10" t="n"/>
+      <c r="F9" s="10" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>Besonders besorgniserregende Stoffe</t>
         </is>
       </c>
-      <c r="D10" s="11" t="n"/>
-      <c r="E10" s="11" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="10" t="n"/>
+      <c r="F10" s="10" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Mikroplastik</t>
         </is>
       </c>
-      <c r="D11" s="11" t="n"/>
-      <c r="E11" s="11" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="10" t="n"/>
+      <c r="F11" s="10" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>Wasser- und Meeresressourcen</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>Wasserverbrauch</t>
         </is>
       </c>
-      <c r="D12" s="9" t="n"/>
-      <c r="E12" s="9" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Wasserentnahme</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>Wasser- und Meeresressourcen</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
-        <is>
-          <t>Wasserentnahme</t>
-        </is>
-      </c>
-      <c r="D13" s="9" t="n"/>
-      <c r="E13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>Ableitung von Wasser</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="8" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <t>Wasser- und Meeresressourcen</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
-        <is>
-          <t>Ableitung von Wasser</t>
-        </is>
-      </c>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="9" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Ableitung von Wasser in die Ozeane</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="n"/>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>Wasser- und Meeresressourcen</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr">
-        <is>
-          <t>Ableitung von Wasser in die Ozeane</t>
-        </is>
-      </c>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="9" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="10" t="inlineStr">
-        <is>
-          <t>Wasser- und Meeresressourcen</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>Gewinnung und Nutzung von Meeresressourcen</t>
         </is>
       </c>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
       </c>
-      <c r="B17" s="11" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>Direkte Ursachen des Biodiversitätsverlusts</t>
         </is>
       </c>
-      <c r="D17" s="11" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>Klimawandel</t>
         </is>
       </c>
-      <c r="E17" s="11" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="B18" s="12" t="inlineStr">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C18" s="12" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Direkte Ursachen des Biodiversitätsverlusts</t>
         </is>
       </c>
-      <c r="D18" s="11" t="inlineStr">
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t>Land-, Süßwasser- und Meeresnutzungsänderungen</t>
         </is>
       </c>
-      <c r="E18" s="11" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="10" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="B19" s="12" t="inlineStr">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C19" s="12" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Direkte Ursachen des Biodiversitätsverlusts</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
+      <c r="D19" s="10" t="inlineStr">
         <is>
           <t>Direkte Ausbeutung</t>
         </is>
       </c>
-      <c r="E19" s="11" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="10" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="B20" s="12" t="inlineStr">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C20" s="12" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Direkte Ursachen des Biodiversitätsverlusts</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D20" s="10" t="inlineStr">
         <is>
           <t>Invasive gebietsfremde Arten</t>
         </is>
       </c>
-      <c r="E20" s="11" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="10" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="B21" s="12" t="inlineStr">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C21" s="12" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Direkte Ursachen des Biodiversitätsverlusts</t>
         </is>
       </c>
-      <c r="D21" s="11" t="inlineStr">
+      <c r="D21" s="10" t="inlineStr">
         <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="E21" s="11" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="10" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="B22" s="12" t="inlineStr">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C22" s="12" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Direkte Ursachen des Biodiversitätsverlusts</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>Sonstige</t>
         </is>
       </c>
-      <c r="E22" s="11" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="10" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="B23" s="12" t="inlineStr">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="C23" s="10" t="inlineStr">
         <is>
           <t>Auswirkungen auf den Zustand der Arten</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="10" t="inlineStr">
         <is>
           <t>Populationsgröße von Arten</t>
         </is>
       </c>
-      <c r="E23" s="11" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="10" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="B24" s="12" t="inlineStr">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Auswirkungen auf den Zustand der Arten</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr">
+      <c r="D24" s="10" t="inlineStr">
         <is>
           <t>Globales Ausrottungsrisiko von Arten</t>
         </is>
       </c>
-      <c r="E24" s="11" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="10" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="B25" s="12" t="inlineStr">
+      <c r="A25" s="10" t="n"/>
+      <c r="B25" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="C25" s="10" t="inlineStr">
         <is>
           <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
         </is>
       </c>
-      <c r="D25" s="11" t="inlineStr">
+      <c r="D25" s="10" t="inlineStr">
         <is>
           <t>Landdegradation</t>
         </is>
       </c>
-      <c r="E25" s="11" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="B26" s="12" t="inlineStr">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C26" s="12" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
+      <c r="D26" s="10" t="inlineStr">
         <is>
           <t>Wüstenbildung</t>
         </is>
       </c>
-      <c r="E26" s="11" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="10" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="B27" s="12" t="inlineStr">
+      <c r="A27" s="10" t="n"/>
+      <c r="B27" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C27" s="12" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
         </is>
       </c>
-      <c r="D27" s="11" t="inlineStr">
+      <c r="D27" s="10" t="inlineStr">
         <is>
           <t>Bodenversiegelung</t>
         </is>
       </c>
-      <c r="E27" s="11" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="B28" s="12" t="inlineStr">
+      <c r="A28" s="10" t="n"/>
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>Biodiversität</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr">
+      <c r="C28" s="10" t="inlineStr">
         <is>
           <t>Auswirkungen und Abhängigkeiten von Ökosystemdienstleistungen</t>
         </is>
       </c>
-      <c r="D28" s="11" t="inlineStr">
+      <c r="D28" s="10" t="inlineStr">
         <is>
           <t>Auswirkungen und Abhängigkeiten von Ökosystemdienstleistungen</t>
         </is>
       </c>
-      <c r="E28" s="11" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="inlineStr">
+      <c r="A29" s="8" t="inlineStr">
         <is>
           <t>E5</t>
         </is>
       </c>
-      <c r="B29" s="9" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Kreislaufwirtschaft</t>
         </is>
       </c>
-      <c r="C29" s="9" t="inlineStr">
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>Ressourcenzuflüsse, einschließlich Ressourcennutzung</t>
         </is>
       </c>
-      <c r="D29" s="9" t="n"/>
-      <c r="E29" s="9" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="n"/>
-      <c r="B30" s="10" t="inlineStr">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>Kreislaufwirtschaft</t>
         </is>
       </c>
-      <c r="C30" s="9" t="inlineStr">
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>Ressourcenabflüsse im Zusammenhang mit Produkten und Dienstleistungen</t>
         </is>
       </c>
-      <c r="D30" s="9" t="n"/>
-      <c r="E30" s="9" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="n"/>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="A31" s="8" t="n"/>
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>Kreislaufwirtschaft</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>Abfälle</t>
         </is>
       </c>
-      <c r="D31" s="9" t="n"/>
-      <c r="E31" s="9" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+      <c r="A32" s="10" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="10" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D32" s="11" t="inlineStr">
+      <c r="D32" s="10" t="inlineStr">
         <is>
           <t>Sichere Beschäftigung</t>
         </is>
       </c>
-      <c r="E32" s="11" t="n"/>
+      <c r="E32" s="10" t="n"/>
+      <c r="F32" s="10" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="B33" s="12" t="inlineStr">
+      <c r="A33" s="10" t="n"/>
+      <c r="B33" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C33" s="12" t="inlineStr">
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D33" s="11" t="inlineStr">
+      <c r="D33" s="10" t="inlineStr">
         <is>
           <t>Arbeitszeit</t>
         </is>
       </c>
-      <c r="E33" s="11" t="n"/>
+      <c r="E33" s="10" t="n"/>
+      <c r="F33" s="10" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="A34" s="10" t="n"/>
+      <c r="B34" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C34" s="12" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D34" s="11" t="inlineStr">
+      <c r="D34" s="10" t="inlineStr">
         <is>
           <t>Angemessene Entlohnung</t>
         </is>
       </c>
-      <c r="E34" s="11" t="n"/>
+      <c r="E34" s="10" t="n"/>
+      <c r="F34" s="10" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="B35" s="12" t="inlineStr">
+      <c r="A35" s="10" t="n"/>
+      <c r="B35" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C35" s="12" t="inlineStr">
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D35" s="11" t="inlineStr">
+      <c r="D35" s="10" t="inlineStr">
         <is>
           <t>Sozialer Dialog</t>
         </is>
       </c>
-      <c r="E35" s="11" t="n"/>
+      <c r="E35" s="10" t="n"/>
+      <c r="F35" s="10" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="A36" s="10" t="n"/>
+      <c r="B36" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D36" s="11" t="inlineStr">
+      <c r="D36" s="10" t="inlineStr">
         <is>
           <t>Vereinigungsfreiheit, Existenz von Betriebsräten und Rechte der Arbeitnehmer auf Information, Anhörung und Mitbestimmung</t>
         </is>
       </c>
-      <c r="E36" s="11" t="n"/>
+      <c r="E36" s="10" t="n"/>
+      <c r="F36" s="10" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="B37" s="12" t="inlineStr">
+      <c r="A37" s="10" t="n"/>
+      <c r="B37" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C37" s="12" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D37" s="11" t="inlineStr">
+      <c r="D37" s="10" t="inlineStr">
         <is>
           <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
         </is>
       </c>
-      <c r="E37" s="11" t="n"/>
+      <c r="E37" s="10" t="n"/>
+      <c r="F37" s="10" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D38" s="11" t="inlineStr">
+      <c r="D38" s="10" t="inlineStr">
         <is>
           <t>Vereinbarkeit von Berufs- und Privatleben</t>
         </is>
       </c>
-      <c r="E38" s="11" t="n"/>
+      <c r="E38" s="10" t="n"/>
+      <c r="F38" s="10" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="B39" s="12" t="inlineStr">
+      <c r="A39" s="10" t="n"/>
+      <c r="B39" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C39" s="12" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D39" s="11" t="inlineStr">
+      <c r="D39" s="10" t="inlineStr">
         <is>
           <t>Gesundheitsschutz und Sicherheit</t>
         </is>
       </c>
-      <c r="E39" s="11" t="n"/>
+      <c r="E39" s="10" t="n"/>
+      <c r="F39" s="10" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="B40" s="12" t="inlineStr">
+      <c r="A40" s="10" t="n"/>
+      <c r="B40" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="10" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D40" s="11" t="inlineStr">
+      <c r="D40" s="10" t="inlineStr">
         <is>
           <t>Gleichstellung der Geschlechter und gleicher Lohn für gleiche Arbeit</t>
         </is>
       </c>
-      <c r="E40" s="11" t="n"/>
+      <c r="E40" s="10" t="n"/>
+      <c r="F40" s="10" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="B41" s="12" t="inlineStr">
+      <c r="A41" s="10" t="n"/>
+      <c r="B41" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C41" s="12" t="inlineStr">
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D41" s="11" t="inlineStr">
+      <c r="D41" s="10" t="inlineStr">
         <is>
           <t>Schulungen und Kompetenzentwicklung</t>
         </is>
       </c>
-      <c r="E41" s="11" t="n"/>
+      <c r="E41" s="10" t="n"/>
+      <c r="F41" s="10" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="n"/>
-      <c r="B42" s="12" t="inlineStr">
+      <c r="A42" s="10" t="n"/>
+      <c r="B42" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D42" s="11" t="inlineStr">
+      <c r="D42" s="10" t="inlineStr">
         <is>
           <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
         </is>
       </c>
-      <c r="E42" s="11" t="n"/>
+      <c r="E42" s="10" t="n"/>
+      <c r="F42" s="10" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="n"/>
-      <c r="B43" s="12" t="inlineStr">
+      <c r="A43" s="10" t="n"/>
+      <c r="B43" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C43" s="12" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D43" s="11" t="inlineStr">
+      <c r="D43" s="10" t="inlineStr">
         <is>
           <t>Maßnahmen gegen Gewalt und Belästigung am Arbeitsplatz</t>
         </is>
       </c>
-      <c r="E43" s="11" t="n"/>
+      <c r="E43" s="10" t="n"/>
+      <c r="F43" s="10" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="B44" s="12" t="inlineStr">
+      <c r="A44" s="10" t="n"/>
+      <c r="B44" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C44" s="12" t="inlineStr">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D44" s="11" t="inlineStr">
+      <c r="D44" s="10" t="inlineStr">
         <is>
           <t>Vielfalt</t>
         </is>
       </c>
-      <c r="E44" s="11" t="n"/>
+      <c r="E44" s="10" t="n"/>
+      <c r="F44" s="10" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="B45" s="12" t="inlineStr">
+      <c r="A45" s="10" t="n"/>
+      <c r="B45" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="C45" s="10" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D45" s="11" t="inlineStr">
+      <c r="D45" s="10" t="inlineStr">
         <is>
           <t>Kinderarbeit</t>
         </is>
       </c>
-      <c r="E45" s="11" t="n"/>
+      <c r="E45" s="10" t="n"/>
+      <c r="F45" s="10" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="B46" s="12" t="inlineStr">
+      <c r="A46" s="10" t="n"/>
+      <c r="B46" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C46" s="12" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D46" s="11" t="inlineStr">
+      <c r="D46" s="10" t="inlineStr">
         <is>
           <t>Zwangsarbeit</t>
         </is>
       </c>
-      <c r="E46" s="11" t="n"/>
+      <c r="E46" s="10" t="n"/>
+      <c r="F46" s="10" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="B47" s="12" t="inlineStr">
+      <c r="A47" s="10" t="n"/>
+      <c r="B47" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C47" s="12" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D47" s="11" t="inlineStr">
+      <c r="D47" s="10" t="inlineStr">
         <is>
           <t>Wasser- und Sanitäreinrichtungen</t>
         </is>
       </c>
-      <c r="E47" s="11" t="n"/>
+      <c r="E47" s="10" t="n"/>
+      <c r="F47" s="10" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="B48" s="12" t="inlineStr">
+      <c r="A48" s="10" t="n"/>
+      <c r="B48" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C48" s="12" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D48" s="11" t="inlineStr">
+      <c r="D48" s="10" t="inlineStr">
         <is>
           <t>Angemessene Unterbringung</t>
         </is>
       </c>
-      <c r="E48" s="11" t="n"/>
+      <c r="E48" s="10" t="n"/>
+      <c r="F48" s="10" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="B49" s="12" t="inlineStr">
+      <c r="A49" s="10" t="n"/>
+      <c r="B49" s="11" t="inlineStr">
         <is>
           <t>Eigene Belegschaft</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D49" s="11" t="inlineStr">
+      <c r="D49" s="10" t="inlineStr">
         <is>
           <t>Datenschutz</t>
         </is>
       </c>
-      <c r="E49" s="11" t="n"/>
+      <c r="E49" s="10" t="n"/>
+      <c r="F49" s="10" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="inlineStr">
+      <c r="A50" s="8" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C50" s="9" t="inlineStr">
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D50" s="9" t="inlineStr">
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t>Sichere Beschäftigung</t>
         </is>
       </c>
-      <c r="E50" s="9" t="n"/>
+      <c r="E50" s="8" t="n"/>
+      <c r="F50" s="8" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="n"/>
-      <c r="B51" s="10" t="inlineStr">
+      <c r="A51" s="8" t="n"/>
+      <c r="B51" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D51" s="9" t="inlineStr">
+      <c r="D51" s="8" t="inlineStr">
         <is>
           <t>Arbeitszeit</t>
         </is>
       </c>
-      <c r="E51" s="9" t="n"/>
+      <c r="E51" s="8" t="n"/>
+      <c r="F51" s="8" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="n"/>
-      <c r="B52" s="10" t="inlineStr">
+      <c r="A52" s="8" t="n"/>
+      <c r="B52" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C52" s="10" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D52" s="9" t="inlineStr">
+      <c r="D52" s="8" t="inlineStr">
         <is>
           <t>Angemessene Entlohnung</t>
         </is>
       </c>
-      <c r="E52" s="9" t="n"/>
+      <c r="E52" s="8" t="n"/>
+      <c r="F52" s="8" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="n"/>
-      <c r="B53" s="10" t="inlineStr">
+      <c r="A53" s="8" t="n"/>
+      <c r="B53" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C53" s="10" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D53" s="9" t="inlineStr">
+      <c r="D53" s="8" t="inlineStr">
         <is>
           <t>Sozialer Dialog</t>
         </is>
       </c>
-      <c r="E53" s="9" t="n"/>
+      <c r="E53" s="8" t="n"/>
+      <c r="F53" s="8" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="n"/>
-      <c r="B54" s="10" t="inlineStr">
+      <c r="A54" s="8" t="n"/>
+      <c r="B54" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C54" s="10" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D54" s="9" t="inlineStr">
+      <c r="D54" s="8" t="inlineStr">
         <is>
           <t>Vereinigungsfreiheit, Existenz von Betriebsräten und Rechte der Arbeitnehmer auf Information, Anhörung und Mitbestimmung</t>
         </is>
       </c>
-      <c r="E54" s="9" t="n"/>
+      <c r="E54" s="8" t="n"/>
+      <c r="F54" s="8" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="n"/>
-      <c r="B55" s="10" t="inlineStr">
+      <c r="A55" s="8" t="n"/>
+      <c r="B55" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C55" s="10" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D55" s="9" t="inlineStr">
+      <c r="D55" s="8" t="inlineStr">
         <is>
           <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
         </is>
       </c>
-      <c r="E55" s="9" t="n"/>
+      <c r="E55" s="8" t="n"/>
+      <c r="F55" s="8" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="n"/>
-      <c r="B56" s="10" t="inlineStr">
+      <c r="A56" s="8" t="n"/>
+      <c r="B56" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C56" s="10" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D56" s="9" t="inlineStr">
+      <c r="D56" s="8" t="inlineStr">
         <is>
           <t>Vereinbarkeit von Berufs- und Privatleben</t>
         </is>
       </c>
-      <c r="E56" s="9" t="n"/>
+      <c r="E56" s="8" t="n"/>
+      <c r="F56" s="8" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="n"/>
-      <c r="B57" s="10" t="inlineStr">
+      <c r="A57" s="8" t="n"/>
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C57" s="10" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>Arbeitsbedingungen</t>
         </is>
       </c>
-      <c r="D57" s="9" t="inlineStr">
+      <c r="D57" s="8" t="inlineStr">
         <is>
           <t>Gesundheitsschutz und Sicherheit</t>
         </is>
       </c>
-      <c r="E57" s="9" t="n"/>
+      <c r="E57" s="8" t="n"/>
+      <c r="F57" s="8" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="n"/>
-      <c r="B58" s="10" t="inlineStr">
+      <c r="A58" s="8" t="n"/>
+      <c r="B58" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C58" s="9" t="inlineStr">
+      <c r="C58" s="8" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D58" s="9" t="inlineStr">
+      <c r="D58" s="8" t="inlineStr">
         <is>
           <t>Gleichstellung der Geschlechter und gleicher Lohn für gleiche Arbeit</t>
         </is>
       </c>
-      <c r="E58" s="9" t="n"/>
+      <c r="E58" s="8" t="n"/>
+      <c r="F58" s="8" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="n"/>
-      <c r="B59" s="10" t="inlineStr">
+      <c r="A59" s="8" t="n"/>
+      <c r="B59" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C59" s="10" t="inlineStr">
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D59" s="9" t="inlineStr">
+      <c r="D59" s="8" t="inlineStr">
         <is>
           <t>Schulungen und Kompetenzentwicklung</t>
         </is>
       </c>
-      <c r="E59" s="9" t="n"/>
+      <c r="E59" s="8" t="n"/>
+      <c r="F59" s="8" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="n"/>
-      <c r="B60" s="10" t="inlineStr">
+      <c r="A60" s="8" t="n"/>
+      <c r="B60" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C60" s="10" t="inlineStr">
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D60" s="9" t="inlineStr">
+      <c r="D60" s="8" t="inlineStr">
         <is>
           <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
         </is>
       </c>
-      <c r="E60" s="9" t="n"/>
+      <c r="E60" s="8" t="n"/>
+      <c r="F60" s="8" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="n"/>
-      <c r="B61" s="10" t="inlineStr">
+      <c r="A61" s="8" t="n"/>
+      <c r="B61" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C61" s="10" t="inlineStr">
+      <c r="C61" s="9" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D61" s="9" t="inlineStr">
+      <c r="D61" s="8" t="inlineStr">
         <is>
           <t>Maßnahmen gegen Gewalt und Belästigung am Arbeitsplatz</t>
         </is>
       </c>
-      <c r="E61" s="9" t="n"/>
+      <c r="E61" s="8" t="n"/>
+      <c r="F61" s="8" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="n"/>
-      <c r="B62" s="10" t="inlineStr">
+      <c r="A62" s="8" t="n"/>
+      <c r="B62" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C62" s="10" t="inlineStr">
+      <c r="C62" s="9" t="inlineStr">
         <is>
           <t>Gleichbehandlung und Chancengleichheit für alle</t>
         </is>
       </c>
-      <c r="D62" s="9" t="inlineStr">
+      <c r="D62" s="8" t="inlineStr">
         <is>
           <t>Vielfalt</t>
         </is>
       </c>
-      <c r="E62" s="9" t="n"/>
+      <c r="E62" s="8" t="n"/>
+      <c r="F62" s="8" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="n"/>
-      <c r="B63" s="10" t="inlineStr">
+      <c r="A63" s="8" t="n"/>
+      <c r="B63" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C63" s="9" t="inlineStr">
+      <c r="C63" s="8" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D63" s="9" t="inlineStr">
+      <c r="D63" s="8" t="inlineStr">
         <is>
           <t>Kinderarbeit</t>
         </is>
       </c>
-      <c r="E63" s="9" t="n"/>
+      <c r="E63" s="8" t="n"/>
+      <c r="F63" s="8" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="n"/>
-      <c r="B64" s="10" t="inlineStr">
+      <c r="A64" s="8" t="n"/>
+      <c r="B64" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C64" s="10" t="inlineStr">
+      <c r="C64" s="9" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D64" s="9" t="inlineStr">
+      <c r="D64" s="8" t="inlineStr">
         <is>
           <t>Zwangsarbeit</t>
         </is>
       </c>
-      <c r="E64" s="9" t="n"/>
+      <c r="E64" s="8" t="n"/>
+      <c r="F64" s="8" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="n"/>
-      <c r="B65" s="10" t="inlineStr">
+      <c r="A65" s="8" t="n"/>
+      <c r="B65" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C65" s="10" t="inlineStr">
+      <c r="C65" s="9" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D65" s="9" t="inlineStr">
+      <c r="D65" s="8" t="inlineStr">
         <is>
           <t>Wasser- und Sanitäreinrichtungen</t>
         </is>
       </c>
-      <c r="E65" s="9" t="n"/>
+      <c r="E65" s="8" t="n"/>
+      <c r="F65" s="8" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="n"/>
-      <c r="B66" s="10" t="inlineStr">
+      <c r="A66" s="8" t="n"/>
+      <c r="B66" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C66" s="10" t="inlineStr">
+      <c r="C66" s="9" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D66" s="9" t="inlineStr">
+      <c r="D66" s="8" t="inlineStr">
         <is>
           <t>Angemessene Unterbringung</t>
         </is>
       </c>
-      <c r="E66" s="9" t="n"/>
+      <c r="E66" s="8" t="n"/>
+      <c r="F66" s="8" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="n"/>
-      <c r="B67" s="10" t="inlineStr">
+      <c r="A67" s="8" t="n"/>
+      <c r="B67" s="9" t="inlineStr">
         <is>
           <t>Belegschaft Lieferkette</t>
         </is>
       </c>
-      <c r="C67" s="10" t="inlineStr">
+      <c r="C67" s="9" t="inlineStr">
         <is>
           <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
-      <c r="D67" s="9" t="inlineStr">
+      <c r="D67" s="8" t="inlineStr">
         <is>
           <t>Datenschutz</t>
         </is>
       </c>
-      <c r="E67" s="9" t="n"/>
+      <c r="E67" s="8" t="n"/>
+      <c r="F67" s="8" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="inlineStr">
+      <c r="A68" s="10" t="inlineStr">
         <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="B68" s="11" t="inlineStr">
+      <c r="B68" s="10" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C68" s="11" t="inlineStr">
+      <c r="C68" s="10" t="inlineStr">
         <is>
           <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
         </is>
       </c>
-      <c r="D68" s="11" t="inlineStr">
+      <c r="D68" s="10" t="inlineStr">
         <is>
           <t>Angemessene Unterbringung</t>
         </is>
       </c>
-      <c r="E68" s="11" t="n"/>
+      <c r="E68" s="10" t="n"/>
+      <c r="F68" s="10" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="n"/>
-      <c r="B69" s="12" t="inlineStr">
+      <c r="A69" s="10" t="n"/>
+      <c r="B69" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C69" s="12" t="inlineStr">
+      <c r="C69" s="11" t="inlineStr">
         <is>
           <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
         </is>
       </c>
-      <c r="D69" s="11" t="inlineStr">
+      <c r="D69" s="10" t="inlineStr">
         <is>
           <t>Angemessene Ernährung</t>
         </is>
       </c>
-      <c r="E69" s="11" t="n"/>
+      <c r="E69" s="10" t="n"/>
+      <c r="F69" s="10" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="n"/>
-      <c r="B70" s="12" t="inlineStr">
+      <c r="A70" s="10" t="n"/>
+      <c r="B70" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C70" s="12" t="inlineStr">
+      <c r="C70" s="11" t="inlineStr">
         <is>
           <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
         </is>
       </c>
-      <c r="D70" s="11" t="inlineStr">
+      <c r="D70" s="10" t="inlineStr">
         <is>
           <t>Wasser- und Sanitäreinrichtungen</t>
         </is>
       </c>
-      <c r="E70" s="11" t="n"/>
+      <c r="E70" s="10" t="n"/>
+      <c r="F70" s="10" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="n"/>
-      <c r="B71" s="12" t="inlineStr">
+      <c r="A71" s="10" t="n"/>
+      <c r="B71" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C71" s="12" t="inlineStr">
+      <c r="C71" s="11" t="inlineStr">
         <is>
           <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
         </is>
       </c>
-      <c r="D71" s="11" t="inlineStr">
+      <c r="D71" s="10" t="inlineStr">
         <is>
           <t>Bodenbezogene Auswirkungen</t>
         </is>
       </c>
-      <c r="E71" s="11" t="n"/>
+      <c r="E71" s="10" t="n"/>
+      <c r="F71" s="10" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="n"/>
-      <c r="B72" s="12" t="inlineStr">
+      <c r="A72" s="10" t="n"/>
+      <c r="B72" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C72" s="12" t="inlineStr">
+      <c r="C72" s="11" t="inlineStr">
         <is>
           <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
         </is>
       </c>
-      <c r="D72" s="13" t="inlineStr">
+      <c r="D72" s="12" t="inlineStr">
         <is>
           <t>Sicherheitsbezogene Auswirkungen</t>
         </is>
       </c>
-      <c r="E72" s="11" t="n"/>
+      <c r="E72" s="10" t="n"/>
+      <c r="F72" s="10" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="n"/>
-      <c r="B73" s="12" t="inlineStr">
+      <c r="A73" s="10" t="n"/>
+      <c r="B73" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C73" s="11" t="inlineStr">
+      <c r="C73" s="10" t="inlineStr">
         <is>
           <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
         </is>
       </c>
-      <c r="D73" s="11" t="inlineStr">
+      <c r="D73" s="10" t="inlineStr">
         <is>
           <t>Meinungsfreiheit</t>
         </is>
       </c>
-      <c r="E73" s="11" t="n"/>
+      <c r="E73" s="10" t="n"/>
+      <c r="F73" s="10" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="n"/>
-      <c r="B74" s="12" t="inlineStr">
+      <c r="A74" s="10" t="n"/>
+      <c r="B74" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C74" s="12" t="inlineStr">
+      <c r="C74" s="11" t="inlineStr">
         <is>
           <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
         </is>
       </c>
-      <c r="D74" s="11" t="inlineStr">
+      <c r="D74" s="10" t="inlineStr">
         <is>
           <t>Versammlungsfreiheit</t>
         </is>
       </c>
-      <c r="E74" s="11" t="n"/>
+      <c r="E74" s="10" t="n"/>
+      <c r="F74" s="10" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="n"/>
-      <c r="B75" s="12" t="inlineStr">
+      <c r="A75" s="10" t="n"/>
+      <c r="B75" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C75" s="12" t="inlineStr">
+      <c r="C75" s="11" t="inlineStr">
         <is>
           <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
         </is>
       </c>
-      <c r="D75" s="11" t="inlineStr">
+      <c r="D75" s="10" t="inlineStr">
         <is>
           <t>Auswirkungen auf Menschenrechtsverteidiger</t>
         </is>
       </c>
-      <c r="E75" s="11" t="n"/>
+      <c r="E75" s="10" t="n"/>
+      <c r="F75" s="10" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="n"/>
-      <c r="B76" s="12" t="inlineStr">
+      <c r="A76" s="10" t="n"/>
+      <c r="B76" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C76" s="11" t="inlineStr">
+      <c r="C76" s="10" t="inlineStr">
         <is>
           <t>Rechte indigener Völker</t>
         </is>
       </c>
-      <c r="D76" s="11" t="inlineStr">
+      <c r="D76" s="10" t="inlineStr">
         <is>
           <t>Freiwillige und in Kenntnis der Sachlage erteilte vorherige Zustimmung</t>
         </is>
       </c>
-      <c r="E76" s="11" t="n"/>
+      <c r="E76" s="10" t="n"/>
+      <c r="F76" s="10" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="n"/>
-      <c r="B77" s="12" t="inlineStr">
+      <c r="A77" s="10" t="n"/>
+      <c r="B77" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C77" s="12" t="inlineStr">
+      <c r="C77" s="11" t="inlineStr">
         <is>
           <t>Rechte indigener Völker</t>
         </is>
       </c>
-      <c r="D77" s="11" t="inlineStr">
+      <c r="D77" s="10" t="inlineStr">
         <is>
           <t>Selbstbestimmung</t>
         </is>
       </c>
-      <c r="E77" s="11" t="n"/>
+      <c r="E77" s="10" t="n"/>
+      <c r="F77" s="10" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="n"/>
-      <c r="B78" s="12" t="inlineStr">
+      <c r="A78" s="10" t="n"/>
+      <c r="B78" s="11" t="inlineStr">
         <is>
           <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
-      <c r="C78" s="12" t="inlineStr">
+      <c r="C78" s="11" t="inlineStr">
         <is>
           <t>Rechte indigener Völker</t>
         </is>
       </c>
-      <c r="D78" s="11" t="inlineStr">
+      <c r="D78" s="10" t="inlineStr">
         <is>
           <t>Kulturelle Rechte</t>
         </is>
       </c>
-      <c r="E78" s="11" t="n"/>
+      <c r="E78" s="10" t="n"/>
+      <c r="F78" s="10" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="inlineStr">
+      <c r="A79" s="8" t="inlineStr">
         <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="B79" s="9" t="inlineStr">
+      <c r="B79" s="8" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C79" s="9" t="inlineStr">
+      <c r="C79" s="8" t="inlineStr">
         <is>
           <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
         </is>
       </c>
-      <c r="D79" s="9" t="inlineStr">
+      <c r="D79" s="8" t="inlineStr">
         <is>
           <t>Datenschutz</t>
         </is>
       </c>
-      <c r="E79" s="9" t="n"/>
+      <c r="E79" s="8" t="n"/>
+      <c r="F79" s="8" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="n"/>
-      <c r="B80" s="10" t="inlineStr">
+      <c r="A80" s="8" t="n"/>
+      <c r="B80" s="9" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C80" s="10" t="inlineStr">
+      <c r="C80" s="9" t="inlineStr">
         <is>
           <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
         </is>
       </c>
-      <c r="D80" s="9" t="inlineStr">
+      <c r="D80" s="8" t="inlineStr">
         <is>
           <t>Meinungsfreiheit</t>
         </is>
       </c>
-      <c r="E80" s="9" t="n"/>
+      <c r="E80" s="8" t="n"/>
+      <c r="F80" s="8" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="n"/>
-      <c r="B81" s="10" t="inlineStr">
+      <c r="A81" s="8" t="n"/>
+      <c r="B81" s="9" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C81" s="10" t="inlineStr">
+      <c r="C81" s="9" t="inlineStr">
         <is>
           <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
         </is>
       </c>
-      <c r="D81" s="9" t="inlineStr">
+      <c r="D81" s="8" t="inlineStr">
         <is>
           <t>Zugang zu (hochwertigen) Informationen</t>
         </is>
       </c>
-      <c r="E81" s="9" t="n"/>
+      <c r="E81" s="8" t="n"/>
+      <c r="F81" s="8" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="n"/>
-      <c r="B82" s="10" t="inlineStr">
+      <c r="A82" s="8" t="n"/>
+      <c r="B82" s="9" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C82" s="9" t="inlineStr">
+      <c r="C82" s="8" t="inlineStr">
         <is>
           <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
         </is>
       </c>
-      <c r="D82" s="9" t="inlineStr">
+      <c r="D82" s="8" t="inlineStr">
         <is>
           <t>Gesundheitsschutz und Sicherheit</t>
         </is>
       </c>
-      <c r="E82" s="9" t="n"/>
+      <c r="E82" s="8" t="n"/>
+      <c r="F82" s="8" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="n"/>
-      <c r="B83" s="10" t="inlineStr">
+      <c r="A83" s="8" t="n"/>
+      <c r="B83" s="9" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C83" s="10" t="inlineStr">
+      <c r="C83" s="9" t="inlineStr">
         <is>
           <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
         </is>
       </c>
-      <c r="D83" s="14" t="inlineStr">
+      <c r="D83" s="13" t="inlineStr">
         <is>
           <t>Persönliche Sicherheit</t>
         </is>
       </c>
-      <c r="E83" s="9" t="n"/>
+      <c r="E83" s="8" t="n"/>
+      <c r="F83" s="8" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="n"/>
-      <c r="B84" s="10" t="inlineStr">
+      <c r="A84" s="8" t="n"/>
+      <c r="B84" s="9" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C84" s="10" t="inlineStr">
+      <c r="C84" s="9" t="inlineStr">
         <is>
           <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
         </is>
       </c>
-      <c r="D84" s="9" t="inlineStr">
+      <c r="D84" s="8" t="inlineStr">
         <is>
           <t>Kinderschutz</t>
         </is>
       </c>
-      <c r="E84" s="9" t="n"/>
+      <c r="E84" s="8" t="n"/>
+      <c r="F84" s="8" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="n"/>
-      <c r="B85" s="10" t="inlineStr">
+      <c r="A85" s="8" t="n"/>
+      <c r="B85" s="9" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C85" s="9" t="inlineStr">
+      <c r="C85" s="8" t="inlineStr">
         <is>
           <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
         </is>
       </c>
-      <c r="D85" s="14" t="inlineStr">
+      <c r="D85" s="13" t="inlineStr">
         <is>
           <t>Nichtdiskriminierung</t>
         </is>
       </c>
-      <c r="E85" s="9" t="n"/>
+      <c r="E85" s="8" t="n"/>
+      <c r="F85" s="8" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="n"/>
-      <c r="B86" s="10" t="inlineStr">
+      <c r="A86" s="8" t="n"/>
+      <c r="B86" s="9" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C86" s="10" t="inlineStr">
+      <c r="C86" s="9" t="inlineStr">
         <is>
           <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
         </is>
       </c>
-      <c r="D86" s="9" t="inlineStr">
+      <c r="D86" s="8" t="inlineStr">
         <is>
           <t>Zugang zu Produkten und Dienstleistungen</t>
         </is>
       </c>
-      <c r="E86" s="9" t="n"/>
+      <c r="E86" s="8" t="n"/>
+      <c r="F86" s="8" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="n"/>
-      <c r="B87" s="10" t="inlineStr">
+      <c r="A87" s="8" t="n"/>
+      <c r="B87" s="9" t="inlineStr">
         <is>
           <t>Verbraucher und Endnutzer</t>
         </is>
       </c>
-      <c r="C87" s="10" t="inlineStr">
+      <c r="C87" s="9" t="inlineStr">
         <is>
           <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
         </is>
       </c>
-      <c r="D87" s="9" t="inlineStr">
+      <c r="D87" s="8" t="inlineStr">
         <is>
           <t>Verantwortliche Vermarktungspraktiken</t>
         </is>
       </c>
-      <c r="E87" s="9" t="n"/>
+      <c r="E87" s="8" t="n"/>
+      <c r="F87" s="8" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="inlineStr">
+      <c r="A88" s="10" t="inlineStr">
         <is>
           <t>G1</t>
         </is>
       </c>
-      <c r="B88" s="11" t="inlineStr">
+      <c r="B88" s="10" t="inlineStr">
         <is>
           <t>Unternehmenspolitik</t>
         </is>
       </c>
-      <c r="C88" s="11" t="inlineStr">
+      <c r="C88" s="10" t="inlineStr">
         <is>
           <t>Unternehmenskultur</t>
         </is>
       </c>
-      <c r="D88" s="11" t="n"/>
-      <c r="E88" s="11" t="n"/>
+      <c r="D88" s="10" t="n"/>
+      <c r="E88" s="10" t="n"/>
+      <c r="F88" s="10" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="n"/>
-      <c r="B89" s="12" t="inlineStr">
+      <c r="A89" s="10" t="n"/>
+      <c r="B89" s="11" t="inlineStr">
         <is>
           <t>Unternehmenspolitik</t>
         </is>
       </c>
-      <c r="C89" s="11" t="inlineStr">
+      <c r="C89" s="10" t="inlineStr">
         <is>
           <t>Schutz von Hinweisgebern (Whistleblowers)</t>
         </is>
       </c>
-      <c r="D89" s="11" t="n"/>
-      <c r="E89" s="11" t="n"/>
+      <c r="D89" s="10" t="n"/>
+      <c r="E89" s="10" t="n"/>
+      <c r="F89" s="10" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="n"/>
-      <c r="B90" s="12" t="inlineStr">
+      <c r="A90" s="10" t="n"/>
+      <c r="B90" s="11" t="inlineStr">
         <is>
           <t>Unternehmenspolitik</t>
         </is>
       </c>
-      <c r="C90" s="11" t="inlineStr">
+      <c r="C90" s="10" t="inlineStr">
         <is>
           <t>Tierschutz</t>
         </is>
       </c>
-      <c r="D90" s="11" t="n"/>
-      <c r="E90" s="11" t="n"/>
+      <c r="D90" s="10" t="n"/>
+      <c r="E90" s="10" t="n"/>
+      <c r="F90" s="10" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="n"/>
-      <c r="B91" s="12" t="inlineStr">
+      <c r="A91" s="10" t="n"/>
+      <c r="B91" s="11" t="inlineStr">
         <is>
           <t>Unternehmenspolitik</t>
         </is>
       </c>
-      <c r="C91" s="11" t="inlineStr">
+      <c r="C91" s="10" t="inlineStr">
         <is>
           <t>Politisches Engagement und Lobbytätigkeiten</t>
         </is>
       </c>
-      <c r="D91" s="11" t="n"/>
-      <c r="E91" s="11" t="n"/>
+      <c r="D91" s="10" t="n"/>
+      <c r="E91" s="10" t="n"/>
+      <c r="F91" s="10" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="n"/>
-      <c r="B92" s="12" t="inlineStr">
+      <c r="A92" s="10" t="n"/>
+      <c r="B92" s="11" t="inlineStr">
         <is>
           <t>Unternehmenspolitik</t>
         </is>
       </c>
-      <c r="C92" s="11" t="inlineStr">
+      <c r="C92" s="10" t="inlineStr">
         <is>
           <t>Management der Beziehungen zu Lieferanten, einschließlich Zahlungspraktiken</t>
         </is>
       </c>
-      <c r="D92" s="11" t="n"/>
-      <c r="E92" s="11" t="n"/>
+      <c r="D92" s="10" t="n"/>
+      <c r="E92" s="10" t="n"/>
+      <c r="F92" s="10" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="11" t="n"/>
-      <c r="B93" s="12" t="inlineStr">
+      <c r="A93" s="10" t="n"/>
+      <c r="B93" s="11" t="inlineStr">
         <is>
           <t>Unternehmenspolitik</t>
         </is>
       </c>
-      <c r="C93" s="11" t="inlineStr">
+      <c r="C93" s="10" t="inlineStr">
         <is>
           <t>Vermeidung und Aufdeckung einschließlich Schulung</t>
         </is>
       </c>
-      <c r="D93" s="12" t="n"/>
-      <c r="E93" s="11" t="n"/>
+      <c r="D93" s="11" t="n"/>
+      <c r="E93" s="10" t="n"/>
+      <c r="F93" s="10" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="n"/>
-      <c r="B94" s="12" t="inlineStr">
+      <c r="A94" s="10" t="n"/>
+      <c r="B94" s="11" t="inlineStr">
         <is>
           <t>Unternehmenspolitik</t>
         </is>
       </c>
-      <c r="C94" s="11" t="inlineStr">
+      <c r="C94" s="10" t="inlineStr">
         <is>
           <t>Vorkomnisse</t>
         </is>
       </c>
-      <c r="D94" s="11" t="n"/>
-      <c r="E94" s="11" t="n"/>
+      <c r="D94" s="10" t="n"/>
+      <c r="E94" s="10" t="n"/>
+      <c r="F94" s="10" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E94">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:F20">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2622,19 +2975,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2645,8 +2986,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2657,8 +2998,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="E31:F31">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F94">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2670,7 +3023,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="E2:E94" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2:F94" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>$H$1:$H$4</formula1>
     </dataValidation>
     <dataValidation sqref="H1:H4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
@@ -2693,38 +3046,44 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="35.6328125" customWidth="1" style="17" min="1" max="1"/>
-    <col width="56.6328125" customWidth="1" style="17" min="2" max="2"/>
-    <col width="66.6328125" customWidth="1" style="17" min="3" max="3"/>
-    <col width="18.7265625" customWidth="1" style="17" min="4" max="4"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
+    <col width="35.6328125" customWidth="1" style="20" min="1" max="1"/>
+    <col width="56.6328125" customWidth="1" style="20" min="2" max="2"/>
+    <col width="66.6328125" customWidth="1" style="20" min="3" max="3"/>
+    <col width="32.6328125" bestFit="1" customWidth="1" style="20" min="4" max="4"/>
+    <col width="27.36328125" bestFit="1" customWidth="1" style="20" min="5" max="5"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="20" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="17" thickBot="1">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="20" thickBot="1">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
-        <is>
-          <t>Bewertung</t>
+      <c r="D1" s="14" t="inlineStr">
+        <is>
+          <t>Auswirkungsbezogene Bewertung</t>
+        </is>
+      </c>
+      <c r="E1" s="14" t="inlineStr">
+        <is>
+          <t>Finanzbezogene Bewertung</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2734,17 +3093,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>
@@ -2767,6 +3115,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E200">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2782,7 +3142,7 @@
     <dataValidation sqref="G1:G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>$A$14:$A$17</formula1>
     </dataValidation>
-    <dataValidation sqref="C201:C400 D2:D200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C201:C400 D2:E200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>$G$1:$G$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -2801,38 +3161,44 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="35.6328125" customWidth="1" style="17" min="1" max="1"/>
-    <col width="56.6328125" customWidth="1" style="17" min="2" max="2"/>
-    <col width="66.7265625" customWidth="1" style="17" min="3" max="3"/>
-    <col width="18.7265625" customWidth="1" style="17" min="4" max="4"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
+    <col width="35.6328125" customWidth="1" style="20" min="1" max="1"/>
+    <col width="56.6328125" customWidth="1" style="20" min="2" max="2"/>
+    <col width="66.7265625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="32.6328125" bestFit="1" customWidth="1" style="20" min="4" max="4"/>
+    <col width="27.36328125" bestFit="1" customWidth="1" style="20" min="5" max="5"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" style="20" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="17" thickBot="1">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="20" thickBot="1">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
-        <is>
-          <t>Bewertung</t>
+      <c r="D1" s="14" t="inlineStr">
+        <is>
+          <t>Auswirkungsbezogene Bewertung</t>
+        </is>
+      </c>
+      <c r="E1" s="18" t="inlineStr">
+        <is>
+          <t>Finanzbezogene Bewertung</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2864,7 +3230,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E200">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2876,7 +3254,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="C201:C400 D2:D200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C201:C400 D2:E200" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>$G$1:$G$4</formula1>
     </dataValidation>
     <dataValidation sqref="G1:G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3093,6 +3093,21 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Eher Wesentlich</t>

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>w</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>z</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Hochwasserschutzmaßnahmen</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3044,7 +3044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hochwasserschutzmaßnahmen</t>
+          <t>Bewohner</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -3115,6 +3115,21 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Eher nicht Wesentlich</t>
@@ -3122,11 +3137,73 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hilfe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Keine Lust mehr</t>
+        </is>
+      </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Nicht Wesentlich</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>noch</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ein</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>eigener</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Klimaschutz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">

--- a/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mitarbeiter</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="7" t="n"/>
@@ -3173,6 +3173,21 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hochwasserschutzmaßnahmen</t>
+        </is>
+      </c>
       <c r="D3" s="7" t="n"/>
       <c r="E3" s="7" t="n"/>
       <c r="G3" s="20" t="inlineStr">
